--- a/medicine/Enfance/Enfant_star/Enfant_star.xlsx
+++ b/medicine/Enfance/Enfant_star/Enfant_star.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un enfant star ou enfant-vedette[1],[2] est un enfant qui devient une vedette, souvent grâce à un métier de l'industrie du spectacle. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un enfant star ou enfant-vedette, est un enfant qui devient une vedette, souvent grâce à un métier de l'industrie du spectacle. 
 Les films, séries télévisées, pièces de théâtre, comédies musicales comportent en effet des personnages enfantins qui nécessitent d'être incarnés, et il arrive également qu'un enfant devienne célèbre dans la chanson.
 </t>
         </is>
@@ -512,14 +524,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'expression s'est d'abord appliquée, essentiellement, au domaine du cinéma. Le premier enfant star ayant connu une renommée mondiale est l'actrice américaine Shirley Temple[3],[4]. Celle-ci a enchaîné des dizaines de films, à partir de l'âge de 6 ans.
-À partir du tournage Le Kid (1921), les studios hollywoodiens comprennent l'intérêt de présenter des enfants stars à l'écran. Le héros du film (avec Charlie Chaplin), Jackie Coogan, est embauché par la MGM, studio sous la houlette de Louis B. Mayer (et qui gère personnellement la carrière de ces enfants, comme chaque activité de l'entreprise) qui emploie bientôt une dizaine d'enfants, dont Shirley Temple, Elizabeth Taylor, Mickey Rooney ou encore Margaret O'Brien. Les studios, situés à Culver City, fonctionnent alors comme une petite ville de 4 000 employés, avec ses transports, un hôpital, des pompiers, des policiers et une école, où la scolarité des enfants est réduite à trois heures par jour[5]. 
-En 1939, les parlementaires de Californie, émus par le sort de Jackie Coogan, dont la fortune avait été dilapidée par ses parents, vote une loi toujours en vigueur afin de les protéger. Les conditions de vie des jeunes acteurs sont pourtant critiquées : le rythme de tournage est soutenu, la discipline sévère (Judy Garland doit prendre des amphétamines pour supporter les longues journées de tournage et est giflée par un réalisateur alors qu'elle était dissipée), les relations amicales sont rares et la jalousie entre les enfants assez présente (par exemple entre Judy Garland et Lana Turner), et les parents des enfants se servent parfois de leur progéniture pour accomplir la carrière qu'ils n'ont eux-mêmes pas pu mener (comme Elizabeth Taylor qui évoque une « épreuve pénible », sa mère Sara Sothern ayant seulement été quelque temps comédienne à Broadway)[5]. 
-L'éducation de l'enfant relevant d'un contrôle strict (interdits alimentaires, sécurité), l'autorité parentale devient liée à une obligation contractuelle et est rémunérée. Après leur carrière de jeunesse, certains enfants poursuivent au sein du studio comme Judy Garland et Elizabeth Taylor (même si on essaie d'arranger leur mariage), quand d'autres, comme Margaret O'Brien jugée « moins gracieuse » ou Shirley Temple, doivent le quitter. Ancien enfant star, Ted Donaldson (en) juge a posteriori cette période : « ce n'est pas seulement que les enfants acteurs perdent leur enfance, c'est qu'ils l’usent à force de la jouer à l'écran »[5].
-En 1973, sur le tournage d'un téléfilm, Elizabeth Taylor s'étonnera du fait que l'enfant jouant le rôle de sa fille avait un nombre d’heures de travail inférieur au sien et que cela soit contrôlé. « On n'avait pas ça à la MGM, il fallait apprendre à survivre par soi-même »[5].
-À partir des années 1960, le contrôle de Hollywood sur les enfants stars se relâche, reléguant au passé l'époque où les services de communication des studios guettaient les errements de ces acteurs. Cette liberté a pourtant des conséquences néfastes : en 1989, Drew Barrymore, âgée de 13 ans, entame sa deuxième cure de désintoxication. Haley Joel Osment, devenu trapu et barbu après sa carrière d'enfant-star, est lui tourné en dérision par les médias. Macaulay Culkin, après le succès de Maman, j'ai raté l'avion (1990), voit ses parents se déchirer pour obtenir sa garde et le contrôle de ses cachets ; à 15 ans, l'acteur obtient judiciairement son émancipation, quitte sa carrière cinématographique et se fait connaître ensuite pour ses problèmes de drogue. River Phoenix décède d'une overdose. Des affaires de pédophilie font la chronique, impliquant des enfants-acteurs avec des managers, des publicistes, des photographes, des réalisateurs ou encore des assistants de production. La chanteuse et actrice Lindsay Lohan connait aussi quelques déboires personnels, ce qui a freiné sa carrière. D'autres s'en sortent, comme Leonardo DiCaprio, qui grandit pourtant dans un quartier de Los Angeles où la drogue et la prostitution sont très présents[6]. En 1999, dès l'âge de 15 ans, la chanteuse Mandy Moore se reconvertit avec succès en tant qu'actrice et obtient une carrière florissante pour son âge, en jouant avec des acteurs à renommée internationale[7]. Des enfants stars tels que Christina Ricci, Kirsten Dunst, Soleil Moon Frye, Neil Patrick Harris, Melissa Joan Hart, Hilary Duff et Raven Symoné ont également connu des carrières à succès.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'expression s'est d'abord appliquée, essentiellement, au domaine du cinéma. Le premier enfant star ayant connu une renommée mondiale est l'actrice américaine Shirley Temple,. Celle-ci a enchaîné des dizaines de films, à partir de l'âge de 6 ans.
+À partir du tournage Le Kid (1921), les studios hollywoodiens comprennent l'intérêt de présenter des enfants stars à l'écran. Le héros du film (avec Charlie Chaplin), Jackie Coogan, est embauché par la MGM, studio sous la houlette de Louis B. Mayer (et qui gère personnellement la carrière de ces enfants, comme chaque activité de l'entreprise) qui emploie bientôt une dizaine d'enfants, dont Shirley Temple, Elizabeth Taylor, Mickey Rooney ou encore Margaret O'Brien. Les studios, situés à Culver City, fonctionnent alors comme une petite ville de 4 000 employés, avec ses transports, un hôpital, des pompiers, des policiers et une école, où la scolarité des enfants est réduite à trois heures par jour. 
+En 1939, les parlementaires de Californie, émus par le sort de Jackie Coogan, dont la fortune avait été dilapidée par ses parents, vote une loi toujours en vigueur afin de les protéger. Les conditions de vie des jeunes acteurs sont pourtant critiquées : le rythme de tournage est soutenu, la discipline sévère (Judy Garland doit prendre des amphétamines pour supporter les longues journées de tournage et est giflée par un réalisateur alors qu'elle était dissipée), les relations amicales sont rares et la jalousie entre les enfants assez présente (par exemple entre Judy Garland et Lana Turner), et les parents des enfants se servent parfois de leur progéniture pour accomplir la carrière qu'ils n'ont eux-mêmes pas pu mener (comme Elizabeth Taylor qui évoque une « épreuve pénible », sa mère Sara Sothern ayant seulement été quelque temps comédienne à Broadway). 
+L'éducation de l'enfant relevant d'un contrôle strict (interdits alimentaires, sécurité), l'autorité parentale devient liée à une obligation contractuelle et est rémunérée. Après leur carrière de jeunesse, certains enfants poursuivent au sein du studio comme Judy Garland et Elizabeth Taylor (même si on essaie d'arranger leur mariage), quand d'autres, comme Margaret O'Brien jugée « moins gracieuse » ou Shirley Temple, doivent le quitter. Ancien enfant star, Ted Donaldson (en) juge a posteriori cette période : « ce n'est pas seulement que les enfants acteurs perdent leur enfance, c'est qu'ils l’usent à force de la jouer à l'écran ».
+En 1973, sur le tournage d'un téléfilm, Elizabeth Taylor s'étonnera du fait que l'enfant jouant le rôle de sa fille avait un nombre d’heures de travail inférieur au sien et que cela soit contrôlé. « On n'avait pas ça à la MGM, il fallait apprendre à survivre par soi-même ».
+À partir des années 1960, le contrôle de Hollywood sur les enfants stars se relâche, reléguant au passé l'époque où les services de communication des studios guettaient les errements de ces acteurs. Cette liberté a pourtant des conséquences néfastes : en 1989, Drew Barrymore, âgée de 13 ans, entame sa deuxième cure de désintoxication. Haley Joel Osment, devenu trapu et barbu après sa carrière d'enfant-star, est lui tourné en dérision par les médias. Macaulay Culkin, après le succès de Maman, j'ai raté l'avion (1990), voit ses parents se déchirer pour obtenir sa garde et le contrôle de ses cachets ; à 15 ans, l'acteur obtient judiciairement son émancipation, quitte sa carrière cinématographique et se fait connaître ensuite pour ses problèmes de drogue. River Phoenix décède d'une overdose. Des affaires de pédophilie font la chronique, impliquant des enfants-acteurs avec des managers, des publicistes, des photographes, des réalisateurs ou encore des assistants de production. La chanteuse et actrice Lindsay Lohan connait aussi quelques déboires personnels, ce qui a freiné sa carrière. D'autres s'en sortent, comme Leonardo DiCaprio, qui grandit pourtant dans un quartier de Los Angeles où la drogue et la prostitution sont très présents. En 1999, dès l'âge de 15 ans, la chanteuse Mandy Moore se reconvertit avec succès en tant qu'actrice et obtient une carrière florissante pour son âge, en jouant avec des acteurs à renommée internationale. Des enfants stars tels que Christina Ricci, Kirsten Dunst, Soleil Moon Frye, Neil Patrick Harris, Melissa Joan Hart, Hilary Duff et Raven Symoné ont également connu des carrières à succès.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Spécificités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les enfants stars sont rarement remarqués par hasard (Will Smith, par exemple), ils sont le plus souvent orientés dans cette voie par un de leurs deux parents, qui leur fait passer des auditions. Ils trouvent généralement leurs premiers rôles dans la publicité (photo ou télévision). Ils sont souvent aussi naturellement dirigés vers cette voie lorsque leurs parents travaillent dans ce milieu (d'autres parents célèbres choisissent au contraire de tenir leurs enfants éloignés du monde du spectacle, évitant aussi d'être photographiés avec eux).
 Un jeune enfant est plus difficile à diriger qu'un grand enfant, et des lois spécifiques protègent ses conditions de travail, en particulier en ce qui concerne le temps de travail, qui est plus réduit. Pour ces raisons, les professionnels de la télévision ou du cinéma ont parfois recours à des jumeaux pour incarner un seul personnage, voire à plusieurs bébés à la fois (Trois hommes et un couffin). Souvent, pour des bébés, on utilise des poupées, tenues de dos et emmitouflées pour qu'on ne voie pas leurs visages, pour limiter le nombre de prises réelles avec le bébé-acteur.
@@ -589,7 +605,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Exemples connus d'enfants stars ayant eu de graves problèmes de drogue ou d'alcoolisme par la suite
 Anissa Jones (décédée à 18 ans d'une overdose), Drew Barrymore, Lindsay Lohan, Macaulay Culkin, Brad Renfro (décédé à 25 ans d'une overdose), Gary Coleman, Todd Bridges, Dana Plato (décédée  à 35 ans d'une overdose), Melissa Gilbert, Corey Feldman, Edward Furlong, Judy Garland (décédée à 47 ans d'une overdose), Elizabeth Taylor, River Phoenix (décédé à 23 ans d'une overdose), Scotty Beckett (décédé à 39 ans d'une overdose), etc.
